--- a/biology/Zoologie/Cephalotes_jansei/Cephalotes_jansei.xlsx
+++ b/biology/Zoologie/Cephalotes_jansei/Cephalotes_jansei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes jansei, aussi appelée originellement Exocryptocerus jansei (à tort[1]) par ses découvreurs, est une espèce éteinte de fourmis arboricoles du genre Cephalotes[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes jansei, aussi appelée originellement Exocryptocerus jansei (à tort) par ses découvreurs, est une espèce éteinte de fourmis arboricoles du genre Cephalotes,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Découverte et datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était probablement native de l'île d'Hispaniola ainsi que des Petites Antilles, mais nous ne disposons pas d'assez d'éléments à l'heure actuelle pour l'affirmer avec certitude[4],[5]. Elle fut découverte fossilisée dans de l'ambre dominicain trouvé à Hispaniola en République dominicaine ; elle est datée du Miocène (Burdigalien à Langhien), soit il y a environ entre 20,44 et 13,82 millions d'années[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était probablement native de l'île d'Hispaniola ainsi que des Petites Antilles, mais nous ne disposons pas d'assez d'éléments à l'heure actuelle pour l'affirmer avec certitude,. Elle fut découverte fossilisée dans de l'ambre dominicain trouvé à Hispaniola en République dominicaine ; elle est datée du Miocène (Burdigalien à Langhien), soit il y a environ entre 20,44 et 13,82 millions d'années.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. jansei fut décrite et classifiée pour la première fois par les entomologistes allemands Gijsbertus Vierbergen et Joachim Scheven en 1995.
-Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[7]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[8].
+Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle est décrite dans Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae) comme un groupe frère de Cephalotes serratus, C. jansei étant notamment différenciée par ses mandibules plus larges et triangulaires.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)</t>
         </is>
